--- a/simulations/cleaned_inclusion_exclusion/Muthu_2021 IEC_clean/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/cleaned_inclusion_exclusion/Muthu_2021 IEC_clean/output/tables/metrics/metrics_sim.xlsx
@@ -713,31 +713,31 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.3363095238095238</v>
+        <v>0.3303571428571428</v>
       </c>
       <c r="D3">
-        <v>0.6101190476190477</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="E3">
         <v>0.8898809523809523</v>
       </c>
       <c r="F3">
-        <v>0.9880952380952381</v>
+        <v>0.9910714285714286</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.3346818683339463</v>
+        <v>0.3390952556086796</v>
       </c>
       <c r="I3">
-        <v>0.1902601262913894</v>
+        <v>0.1920248586215854</v>
       </c>
       <c r="J3">
-        <v>0.2380952380952381</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="K3">
-        <v>621.889880952381</v>
+        <v>626.0952380952381</v>
       </c>
       <c r="L3">
         <v>33</v>
@@ -755,34 +755,34 @@
         <v>302</v>
       </c>
       <c r="Q3">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="R3">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="S3">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="T3">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="U3">
-        <v>1123</v>
+        <v>1071</v>
       </c>
       <c r="V3">
-        <v>2335</v>
+        <v>2316</v>
       </c>
       <c r="W3">
-        <v>2284</v>
+        <v>2274</v>
       </c>
       <c r="X3">
-        <v>2070</v>
+        <v>2059</v>
       </c>
       <c r="Y3">
-        <v>1703</v>
+        <v>1692</v>
       </c>
       <c r="Z3">
-        <v>1260</v>
+        <v>1312</v>
       </c>
       <c r="AA3">
         <v>303</v>
@@ -800,19 +800,19 @@
         <v>34</v>
       </c>
       <c r="AF3">
-        <v>0.979857</v>
+        <v>0.971884</v>
       </c>
       <c r="AG3">
-        <v>0.958456</v>
+        <v>0.954259</v>
       </c>
       <c r="AH3">
-        <v>0.868653</v>
+        <v>0.8640370000000001</v>
       </c>
       <c r="AI3">
-        <v>0.714645</v>
+        <v>0.710029</v>
       </c>
       <c r="AJ3">
-        <v>0.528745</v>
+        <v>0.550567</v>
       </c>
     </row>
   </sheetData>
